--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E7DA9D-3896-443A-A2B6-DE4C56C55AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED4C5A9-8E66-4F64-ADA3-978E73982A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED4C5A9-8E66-4F64-ADA3-978E73982A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D2C73C-0665-401B-87F2-6384ED11D004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D2C73C-0665-401B-87F2-6384ED11D004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF27DFAB-26F7-4F83-A87A-EE48044323FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF27DFAB-26F7-4F83-A87A-EE48044323FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DC7041-4E32-4A1B-AD01-7FDE89ECA86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DC7041-4E32-4A1B-AD01-7FDE89ECA86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27FCB4B-6C0F-4A82-A21B-5A57AEC5186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27FCB4B-6C0F-4A82-A21B-5A57AEC5186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA12D0FF-53EE-4591-ABE0-C3E355A6A4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA12D0FF-53EE-4591-ABE0-C3E355A6A4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D746323-F86F-4287-B7DA-8121F9D1CCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="216">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>electricity used in road transport</t>
+  </si>
+  <si>
+    <t>NCAP_AF</t>
   </si>
   <si>
     <t>ZAF</t>
@@ -3058,7 +3061,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -3085,7 +3088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
   <dimension ref="B3:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -3609,10 +3612,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65"/>
@@ -3729,49 +3732,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="14" t="s">
+    <row r="9" spans="1:11">
+      <c r="C9" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="15" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H13" s="15" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="C13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2222</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3779,22 +3782,22 @@
         <v>70</v>
       </c>
       <c r="E14" s="11">
+        <v>2222</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="11">
         <v>8888</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
       <c r="A16" s="13"/>
@@ -3819,9 +3822,7 @@
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:13" ht="12.75">
-      <c r="A18" s="13" t="s">
-        <v>73</v>
-      </c>
+      <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3833,62 +3834,64 @@
     </row>
     <row r="19" spans="1:13" ht="12.75">
       <c r="A19" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:13" ht="14.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:13" ht="12.75">
+      <c r="A20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25">
+      <c r="A21" t="s">
         <v>208</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>211</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>209</v>
       </c>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20" t="s">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" t="s">
         <v>210</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
     </row>
     <row r="22" spans="1:13" ht="12.75">
       <c r="A22" s="13"/>
@@ -3912,20 +3915,16 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:13" ht="14.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
+    <row r="24" spans="1:13" ht="12.75">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:13" ht="14.25">
       <c r="A25"/>
@@ -4151,6 +4150,21 @@
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
+    </row>
+    <row r="40" spans="1:13" ht="14.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D746323-F86F-4287-B7DA-8121F9D1CCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F8AB23-BD94-4AC8-A0F4-E96976BCEA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="223">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -686,6 +686,27 @@
   </si>
   <si>
     <t>ZAF</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>ELC_Sol-ZAF</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>Solar electricity produced in - South Africa</t>
+  </si>
+  <si>
+    <t>ELC_Win-ZAF</t>
+  </si>
+  <si>
+    <t>Wind electricity produced in - South Africa</t>
   </si>
 </sst>
 </file>
@@ -3086,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F298A9-BCD9-4ABF-BE3B-9D1BDD3E7001}">
-  <dimension ref="B3:I20"/>
+  <dimension ref="B3:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3104,7 +3125,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17.649999999999999" thickBot="1">
+    <row r="3" spans="2:17" ht="17.649999999999999" thickBot="1">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3115,8 +3136,15 @@
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" ht="15" thickTop="1" thickBot="1">
+      <c r="M3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="2:17" ht="15" thickTop="1" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -3141,8 +3169,23 @@
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="M4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -3152,16 +3195,46 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O5" t="s">
+        <v>218</v>
+      </c>
+      <c r="P5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>221</v>
+      </c>
+      <c r="O6" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -3169,7 +3242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:17">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -3177,7 +3250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:17">
       <c r="C9" t="s">
         <v>24</v>
       </c>
@@ -3185,7 +3258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:17">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -3193,7 +3266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:17">
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -3201,7 +3274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:17">
       <c r="C12" t="s">
         <v>28</v>
       </c>
@@ -3209,7 +3282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:17">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -3217,7 +3290,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:17">
       <c r="C14" t="s">
         <v>27</v>
       </c>
@@ -3225,7 +3298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:17">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -3245,7 +3318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:17">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -3614,7 +3687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64C410-895F-4040-A7AB-3F7211AA7FBD}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F8AB23-BD94-4AC8-A0F4-E96976BCEA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC952AC3-01E2-4CF8-98D9-AD29EB8D3320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC952AC3-01E2-4CF8-98D9-AD29EB8D3320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7BA58-0CBD-442F-B23A-F1499BA6A3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7BA58-0CBD-442F-B23A-F1499BA6A3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CA1178-0E5F-4D0B-A52C-34777F811D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CA1178-0E5F-4D0B-A52C-34777F811D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872DE168-402B-4809-8BB0-F2CBCEC681FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872DE168-402B-4809-8BB0-F2CBCEC681FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C958C10-347C-4F63-9DE3-8A61B6044AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C958C10-347C-4F63-9DE3-8A61B6044AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B60210-9BEC-4A27-910B-D0693245F62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_ZAF/SysSettings.xlsx
+++ b/VerveStacks_ZAF/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ZAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B60210-9BEC-4A27-910B-D0693245F62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8061572B-FB5C-44A9-A158-5C8A9CAFE070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
